--- a/JU teacher designing.xlsx
+++ b/JU teacher designing.xlsx
@@ -5813,8 +5813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6516,8 +6516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/JU teacher designing.xlsx
+++ b/JU teacher designing.xlsx
@@ -5813,8 +5813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/JU teacher designing.xlsx
+++ b/JU teacher designing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10125" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10125" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="HoD" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
     <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet2!$C$2:$E$106</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
   <si>
     <t>Registration</t>
   </si>
@@ -5813,8 +5814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6516,8 +6517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8995,4 +8996,57 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C3:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C15:C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3">
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3">
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3">
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/JU teacher designing.xlsx
+++ b/JU teacher designing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10125" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10125" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="445">
   <si>
     <t>Registration</t>
   </si>
@@ -1487,6 +1487,18 @@
   </si>
   <si>
     <t>INSERT INTO teachers_department(faculty,program,name) VALUES</t>
+  </si>
+  <si>
+    <t>Name of the author(s)</t>
+  </si>
+  <si>
+    <t>Link to website of  article/paper/abstract of the article</t>
+  </si>
+  <si>
+    <t>charfield</t>
+  </si>
+  <si>
+    <t>ResearchPub</t>
   </si>
 </sst>
 </file>
@@ -5814,8 +5826,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:N66"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6517,7 +6529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -9000,10 +9012,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:C9"/>
+  <dimension ref="C3:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C15:C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9011,39 +9023,108 @@
     <col min="3" max="3" width="50.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:3">
+    <row r="3" spans="3:4">
       <c r="C3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="3:3">
+    <row r="4" spans="3:4">
       <c r="C4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
+    <row r="5" spans="3:4">
       <c r="C5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
+    <row r="6" spans="3:4">
       <c r="C6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
+    <row r="7" spans="3:4">
       <c r="C7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
+    <row r="8" spans="3:4">
       <c r="C8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="3:3">
+    <row r="9" spans="3:4">
       <c r="C9" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4">
+      <c r="C11" s="69" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4">
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="69" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4">
+      <c r="C13" s="69" t="s">
+        <v>441</v>
+      </c>
+      <c r="D13" s="69" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4">
+      <c r="C14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="69" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="69" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4">
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
+      <c r="D16" s="69" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D17" s="69" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="69" t="s">
+        <v>442</v>
+      </c>
+      <c r="D18" s="69" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="69" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/JU teacher designing.xlsx
+++ b/JU teacher designing.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10125" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10125" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -6529,8 +6529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9014,8 +9014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
